--- a/MultiCalibOpticalBoB_Ver1/MultiCalibOpticalBoB_Ver1/bin/Debug/Demo.xlsx
+++ b/MultiCalibOpticalBoB_Ver1/MultiCalibOpticalBoB_Ver1/bin/Debug/Demo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
@@ -972,18 +972,90 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,78 +1066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,7 +1128,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1151,14 +1151,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1430,273 +1430,273 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27" ht="31.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
     </row>
     <row r="2" spans="1:27" ht="28.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="28" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="30"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="54"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="31">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43">
         <v>42943</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="33"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="25" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="34" t="s">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="48"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="42"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="38"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46" t="s">
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="49" t="s">
+      <c r="T7" s="33"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="50"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="52" t="s">
+      <c r="W7" s="36"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="54"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="38"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="22.5">
-      <c r="A9" s="39"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="11">
         <v>2049</v>
@@ -4250,6 +4250,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AA3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:AA4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:AA5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:R6"/>
     <mergeCell ref="S6:AA6"/>
@@ -4259,20 +4273,6 @@
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:AA4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AA3"/>
   </mergeCells>
   <conditionalFormatting sqref="R10 L10">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">

--- a/MultiCalibOpticalBoB_Ver1/MultiCalibOpticalBoB_Ver1/bin/Debug/Demo.xlsx
+++ b/MultiCalibOpticalBoB_Ver1/MultiCalibOpticalBoB_Ver1/bin/Debug/Demo.xlsx
@@ -972,6 +972,48 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,48 +1066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,7 +1128,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1151,14 +1151,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1430,7 +1430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1447,256 +1447,256 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27" ht="31.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
     </row>
     <row r="2" spans="1:27" ht="28.5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="51" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="52" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="54"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="30"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="43">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="31">
         <v>42943</v>
       </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="45"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="33"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="41" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="46" t="s">
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="48"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="28"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="42"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="24"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32" t="s">
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="35" t="s">
+      <c r="T7" s="47"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38" t="s">
+      <c r="W7" s="50"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="40"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="54"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="24"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="22.5">
-      <c r="A9" s="25"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11">
         <v>2049</v>
@@ -4250,20 +4250,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AA3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:AA4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:AA5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:R6"/>
     <mergeCell ref="S6:AA6"/>
@@ -4273,6 +4259,20 @@
     <mergeCell ref="S7:U7"/>
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:AA4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AA3"/>
   </mergeCells>
   <conditionalFormatting sqref="R10 L10">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
